--- a/data/trans_dic/P42_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P42_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en ERTE o cese de actividad</t>
+          <t>Población que se encuentra en ERTE o cese de actividad (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,77; 24,96</t>
+          <t>3,28; 10,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 11,27</t>
+          <t>1,75; 8,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 6,17</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 12,55</t>
+          <t>0,0; 3,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,0; 27,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 17,49</t>
+          <t>6,24; 15,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,34</t>
+          <t>3,33; 11,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 11,55</t>
+          <t>1,25; 6,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 23,05</t>
+          <t>1,47; 7,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 12,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,64</t>
+          <t>5,7; 11,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 9,33</t>
+          <t>3,28; 8,66</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 3,89</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 3,99</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>3,32%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,62; 22,13</t>
+          <t>4,71; 14,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 12,24</t>
+          <t>2,5; 9,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,92</t>
+          <t>0,0; 4,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,52</t>
+          <t>0,0; 4,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 19,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 11,64</t>
+          <t>1,1; 7,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,47; 4,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,65</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,13; 18,6</t>
+          <t>0,0; 3,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 10,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,63</t>
+          <t>3,3; 8,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,06</t>
+          <t>1,82; 5,89</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 2,79</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 2,82</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,12 +1021,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -956,40 +1041,55 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>11,3%</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,81</t>
+          <t>0,0; 20,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,74</t>
+          <t>0,0; 21,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 37,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,48</t>
+          <t>0,0; 17,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0,0; 13,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 23,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>1,11; 12,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>0,0; 11,32</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,23; 19,65</t>
+          <t>4,31; 10,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 9,12</t>
+          <t>2,7; 7,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,05</t>
+          <t>0,35; 2,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 6,46</t>
+          <t>0,29; 2,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 21,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,9</t>
+          <t>4,48; 10,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,84</t>
+          <t>2,41; 7,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,63</t>
+          <t>0,69; 3,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,31; 19,04</t>
+          <t>0,88; 3,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,1</t>
+          <t>5,19; 8,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,37</t>
+          <t>2,88; 6,01</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 2,47</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 2,65</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en ERTE o cese de actividad (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22908</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18030</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3768</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3578</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>43544</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31615</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11909</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13700</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>66452</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>49645</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>15677</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>17278</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11841; 39521</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7440; 34534</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12301</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11845</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26940; 67443</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16783; 56824</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5278; 26983</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5998; 28769</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>45253; 93461</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30526; 80524</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7228; 30611</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7921; 31442</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>26617</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18327</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4742</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10580</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7762</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1847</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2049</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>37197</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26089</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6589</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6584</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14345; 43932</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8970; 35170</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15590</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15114</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3837; 25334</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2014; 20213</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9353</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10393</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21585; 58445</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14248; 46219</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1866; 18318</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1805; 18529</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3213</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4116</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2593</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7329</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16986</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21470</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14178</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13309</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1852; 21303</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22968</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>52738</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>40400</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8510</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8113</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>58240</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>41970</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13756</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15749</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>110978</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>82370</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>22267</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>23862</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>32390; 77823</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23930; 65281</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2652; 20665</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2306; 19974</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>38738; 86454</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24837; 74057</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5844; 27712</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>7254; 29031</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>83782; 141467</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>55144; 115169</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>11600; 39672</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>13164; 42763</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
